--- a/consumo-agua-2024.xlsx
+++ b/consumo-agua-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0B88410D108B9DF0/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b88410d108b9df0/Documentos/GitHub/community-water-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{C31650AA-B6A2-4F4F-A632-FF432D79C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F3149C-EED1-4CBF-B074-99D76D5313AC}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{C31650AA-B6A2-4F4F-A632-FF432D79C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6976F2E3-0D5F-488A-81B7-4D84CA27840E}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="6015" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="2850" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -38,42 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
-    <t>Valor Janeiro (R$)</t>
-  </si>
-  <si>
-    <t>Valor Fevereiro (R$)</t>
-  </si>
-  <si>
-    <t>Valor Março (R$)</t>
-  </si>
-  <si>
-    <t>Valor Abril (R$)</t>
-  </si>
-  <si>
-    <t>Valor Maio (R$)</t>
-  </si>
-  <si>
-    <t>Valor Junho (R$)</t>
-  </si>
-  <si>
-    <t>Valor Julho (R$)</t>
-  </si>
-  <si>
-    <t>Valor Agosto (R$)</t>
-  </si>
-  <si>
-    <t>Valor Setembro (R$)</t>
-  </si>
-  <si>
-    <t>Valor Outubro (R$)</t>
-  </si>
-  <si>
-    <t>Valor Novembro (R$)</t>
-  </si>
-  <si>
-    <t>Valor Dezembro (R$)</t>
-  </si>
-  <si>
     <t>Adelino Conte</t>
   </si>
   <si>
@@ -260,76 +224,112 @@
     <t>Medição Dezembro 2023 ()</t>
   </si>
   <si>
-    <t>Medição Janeiro ()</t>
-  </si>
-  <si>
-    <t>Medição Fevereiro ()</t>
-  </si>
-  <si>
-    <t>Medição Março ()</t>
-  </si>
-  <si>
-    <t>Medição Abril ()</t>
-  </si>
-  <si>
-    <t>Medição Maio ()</t>
-  </si>
-  <si>
-    <t>Medição Junho ()</t>
-  </si>
-  <si>
-    <t>Medição Julho ()</t>
-  </si>
-  <si>
-    <t>Medição Agosto ()</t>
-  </si>
-  <si>
-    <t>Medição Setembro ()</t>
-  </si>
-  <si>
-    <t>Medição Outubro ()</t>
-  </si>
-  <si>
-    <t>Medição Novembro ()</t>
-  </si>
-  <si>
-    <t>Medição Dezembro ()</t>
-  </si>
-  <si>
-    <t>Consumo Janeiro (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Fevereiro (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Março (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Abril (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Maio (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Junho (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Julho (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Agosto (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Setembro (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Outubro (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Novembro (m³)</t>
-  </si>
-  <si>
-    <t>Consumo Dezembro (m³)</t>
+    <t>Medição Dezembro 2024 ()</t>
+  </si>
+  <si>
+    <t>Valor Dezembro 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Janeiro 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Janeiro 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Janeiro 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Fevereiro 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Fevereiro 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Fevereiro 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Março 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Março 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Março 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Abril 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Abril 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Abril 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Maio 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Maio 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Maio 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Junho 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Junho 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Junho 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Julho 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Julho 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Julho 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Agosto 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Agosto 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Agosto 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Setembro 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Setembro 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Setembro 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Outubro 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Outubro 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Outubro 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Medição Novembro 2024 ()</t>
+  </si>
+  <si>
+    <t>Consumo Novembro 2024 (m³)</t>
+  </si>
+  <si>
+    <t>Valor Novembro 2024 (R$)</t>
+  </si>
+  <si>
+    <t>Consumo Dezembro 2024 (m³)</t>
   </si>
 </sst>
 </file>
@@ -678,10 +678,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -948,7 +944,7 @@
   <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK62" sqref="AK62"/>
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,166 +952,166 @@
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="26">
         <v>1655</v>
@@ -1246,7 +1242,7 @@
     </row>
     <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B3" s="27">
         <v>242</v>
@@ -1377,7 +1373,7 @@
     </row>
     <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="27">
         <v>683</v>
@@ -1508,7 +1504,7 @@
     </row>
     <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B5" s="27">
         <v>446</v>
@@ -1639,7 +1635,7 @@
     </row>
     <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B6" s="27">
         <v>187</v>
@@ -1770,7 +1766,7 @@
     </row>
     <row r="7" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" s="27">
         <v>1080</v>
@@ -1901,7 +1897,7 @@
     </row>
     <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B8" s="27">
         <v>1532</v>
@@ -2032,7 +2028,7 @@
     </row>
     <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" s="27">
         <v>720</v>
@@ -2163,7 +2159,7 @@
     </row>
     <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10" s="27">
         <v>463</v>
@@ -2294,7 +2290,7 @@
     </row>
     <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B11" s="27">
         <v>68</v>
@@ -2425,7 +2421,7 @@
     </row>
     <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B12" s="27">
         <v>223</v>
@@ -2556,7 +2552,7 @@
     </row>
     <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13" s="27">
         <v>945</v>
@@ -2687,7 +2683,7 @@
     </row>
     <row r="14" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" s="27">
         <v>541</v>
@@ -2818,7 +2814,7 @@
     </row>
     <row r="15" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B15" s="27">
         <v>1450</v>
@@ -2949,7 +2945,7 @@
     </row>
     <row r="16" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B16" s="27">
         <v>667</v>
@@ -3080,7 +3076,7 @@
     </row>
     <row r="17" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B17" s="27">
         <v>1112</v>
@@ -3211,7 +3207,7 @@
     </row>
     <row r="18" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B18" s="27">
         <v>1492</v>
@@ -3342,7 +3338,7 @@
     </row>
     <row r="19" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B19" s="27">
         <v>1690</v>
@@ -3473,7 +3469,7 @@
     </row>
     <row r="20" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" s="27">
         <v>1189</v>
@@ -3604,7 +3600,7 @@
     </row>
     <row r="21" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" s="27">
         <v>1294</v>
@@ -3735,7 +3731,7 @@
     </row>
     <row r="22" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B22" s="27">
         <v>831</v>
@@ -3866,7 +3862,7 @@
     </row>
     <row r="23" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B23" s="27">
         <v>1283</v>
@@ -3997,7 +3993,7 @@
     </row>
     <row r="24" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24" s="27">
         <v>650</v>
@@ -4128,7 +4124,7 @@
     </row>
     <row r="25" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B25" s="27">
         <v>1301</v>
@@ -4259,7 +4255,7 @@
     </row>
     <row r="26" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B26" s="27">
         <v>130</v>
@@ -4390,7 +4386,7 @@
     </row>
     <row r="27" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B27" s="27">
         <v>109</v>
@@ -4521,7 +4517,7 @@
     </row>
     <row r="28" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B28" s="27">
         <v>1108</v>
@@ -4652,7 +4648,7 @@
     </row>
     <row r="29" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B29" s="27">
         <v>592</v>
@@ -4783,7 +4779,7 @@
     </row>
     <row r="30" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B30" s="27">
         <v>1425</v>
@@ -4914,7 +4910,7 @@
     </row>
     <row r="31" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B31" s="27">
         <v>883</v>
@@ -5045,7 +5041,7 @@
     </row>
     <row r="32" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B32" s="27">
         <v>735</v>
@@ -5176,7 +5172,7 @@
     </row>
     <row r="33" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B33" s="27">
         <v>1098</v>
@@ -5307,7 +5303,7 @@
     </row>
     <row r="34" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B34" s="27">
         <v>50</v>
@@ -5389,7 +5385,7 @@
         <v>202</v>
       </c>
       <c r="Z34" s="34">
-        <f t="shared" ref="Z34:Z65" si="12" xml:space="preserve"> Y34 - V34</f>
+        <f t="shared" ref="Z34:Z59" si="12" xml:space="preserve"> Y34 - V34</f>
         <v>22</v>
       </c>
       <c r="AA34" s="8">
@@ -5438,7 +5434,7 @@
     </row>
     <row r="35" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B35" s="27">
         <v>181</v>
@@ -5569,7 +5565,7 @@
     </row>
     <row r="36" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B36" s="27">
         <v>735</v>
@@ -5700,7 +5696,7 @@
     </row>
     <row r="37" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B37" s="27">
         <v>653</v>
@@ -5831,7 +5827,7 @@
     </row>
     <row r="38" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B38" s="27">
         <v>188</v>
@@ -5962,7 +5958,7 @@
     </row>
     <row r="39" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B39" s="27">
         <v>1238</v>
@@ -6093,7 +6089,7 @@
     </row>
     <row r="40" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B40" s="27">
         <v>9108</v>
@@ -6224,7 +6220,7 @@
     </row>
     <row r="41" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B41" s="27">
         <v>664</v>
@@ -6355,7 +6351,7 @@
     </row>
     <row r="42" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B42" s="27">
         <v>906</v>
@@ -6486,7 +6482,7 @@
     </row>
     <row r="43" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B43" s="27">
         <v>215</v>
@@ -6617,7 +6613,7 @@
     </row>
     <row r="44" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B44" s="27">
         <v>2254</v>
@@ -6748,7 +6744,7 @@
     </row>
     <row r="45" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B45" s="27">
         <v>69</v>
@@ -6879,7 +6875,7 @@
     </row>
     <row r="46" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B46" s="27">
         <v>3060</v>
@@ -7010,7 +7006,7 @@
     </row>
     <row r="47" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B47" s="27">
         <v>466</v>
@@ -7141,7 +7137,7 @@
     </row>
     <row r="48" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B48" s="27">
         <v>276</v>
@@ -7272,7 +7268,7 @@
     </row>
     <row r="49" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B49" s="27">
         <v>957</v>
@@ -7403,7 +7399,7 @@
     </row>
     <row r="50" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B50" s="27">
         <v>2001</v>
@@ -7534,7 +7530,7 @@
     </row>
     <row r="51" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B51" s="27">
         <v>1865</v>
@@ -7665,7 +7661,7 @@
     </row>
     <row r="52" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B52" s="27">
         <v>1185</v>
@@ -7796,7 +7792,7 @@
     </row>
     <row r="53" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B53" s="27">
         <v>597</v>
@@ -7927,7 +7923,7 @@
     </row>
     <row r="54" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B54" s="27">
         <v>2104</v>
@@ -8058,7 +8054,7 @@
     </row>
     <row r="55" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B55" s="27">
         <v>2599</v>
@@ -8189,7 +8185,7 @@
     </row>
     <row r="56" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B56" s="27">
         <v>101</v>
@@ -8320,7 +8316,7 @@
     </row>
     <row r="57" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B57" s="27">
         <v>232</v>
@@ -8451,7 +8447,7 @@
     </row>
     <row r="58" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B58" s="27">
         <v>1935</v>
@@ -8582,7 +8578,7 @@
     </row>
     <row r="59" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B59" s="27">
         <v>115</v>
@@ -8713,7 +8709,7 @@
     </row>
     <row r="60" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="22">
